--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CB33B-669E-47A2-95A0-4D1E55E9CD82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1741,12 +1740,24 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>deneme</t>
+  </si>
+  <si>
+    <t>asds</t>
+  </si>
+  <si>
+    <t>qsdw</t>
+  </si>
+  <si>
+    <t>sdfs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2166,10 +2177,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4859,21 +4870,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E46F7E-EBF0-44F2-AA2D-0668D88E0AD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
